--- a/src/main/resources/template/excel/export/goodsSaleReport.xlsx
+++ b/src/main/resources/template/excel/export/goodsSaleReport.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>商品名称</t>
   </si>
@@ -74,54 +74,77 @@
     <t>规格</t>
   </si>
   <si>
+    <t>货号</t>
+  </si>
+  <si>
+    <t>商品类别</t>
+  </si>
+  <si>
+    <t>销售金额</t>
+  </si>
+  <si>
+    <t>销售数量</t>
+  </si>
+  <si>
+    <t>退货数量</t>
+  </si>
+  <si>
+    <t>退货金额</t>
+  </si>
+  <si>
+    <t>优惠金额</t>
+  </si>
+  <si>
+    <t>原价金额</t>
+  </si>
+  <si>
+    <t>数量小计</t>
+  </si>
+  <si>
+    <t>金额小计</t>
+  </si>
+  <si>
+    <t>店铺名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.saleAmount}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.branchName}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.skuCode}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.skuName}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.barCode}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.categoryName}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>${obj.spec}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.reason}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>货号</t>
-  </si>
-  <si>
-    <t>商品类别</t>
-  </si>
-  <si>
-    <t>销售金额</t>
-  </si>
-  <si>
-    <t>销售数量</t>
-  </si>
-  <si>
-    <t>退货数量</t>
-  </si>
-  <si>
-    <t>退货金额</t>
-  </si>
-  <si>
-    <t>优惠金额</t>
-  </si>
-  <si>
-    <t>原价金额</t>
-  </si>
-  <si>
-    <t>数量小计</t>
-  </si>
-  <si>
-    <t>金额小计</t>
-  </si>
-  <si>
-    <t>${obj.categoryName}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${obj.unit}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.saleAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>${obj.discountAmount}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.originalAmount}</t>
   </si>
   <si>
     <t>${obj.saleNum}</t>
@@ -136,23 +159,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.discountAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.originalAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${obj.totalNum}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>${obj.totalAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -589,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -602,20 +613,21 @@
     <col min="5" max="5" width="25.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="26.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="23.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.375" style="1" customWidth="1"/>
     <col min="12" max="12" width="18.75" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="13" max="13" width="20.125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -624,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -633,28 +645,28 @@
         <v>2</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -662,37 +674,46 @@
         <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="M2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>5</v>
+      <c r="N2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/goodsSaleReport.xlsx
+++ b/src/main/resources/template/excel/export/goodsSaleReport.xlsx
@@ -159,11 +159,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>${obj.totalAmount}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>${obj.totalNum}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.totalAmount}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -618,8 +618,9 @@
     <col min="10" max="10" width="23.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.375" style="1" customWidth="1"/>
     <col min="12" max="12" width="18.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="13" max="14" width="20.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -709,7 +710,7 @@
       <c r="M2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="O2" s="4" t="s">

--- a/src/main/resources/template/excel/export/goodsSaleReport.xlsx
+++ b/src/main/resources/template/excel/export/goodsSaleReport.xlsx
@@ -36,11 +36,11 @@
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:area(lastCell="O2")</t>
+jx:area(lastCell="O3")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,28 @@
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:each(items="reportList" var="obj" lastCell="O2")</t>
+jx:each(items="reportList" var="obj" lastCell="O</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>")</t>
         </r>
       </text>
     </comment>
@@ -60,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>商品名称</t>
   </si>
@@ -164,6 +185,10 @@
   </si>
   <si>
     <t>${obj.totalNum}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品销售汇总表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -171,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,13 +218,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -231,6 +249,22 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -254,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -277,23 +311,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -598,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -623,101 +673,119 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O3" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -725,7 +793,7 @@
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -815,7 +883,11 @@
     <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/template/excel/export/goodsSaleReport.xlsx
+++ b/src/main/resources/template/excel/export/goodsSaleReport.xlsx
@@ -180,15 +180,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>商品销售汇总表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.totalNum}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>${obj.totalAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.totalNum}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品销售汇总表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -336,14 +336,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -674,23 +674,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -761,29 +761,29 @@
       <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>29</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/goodsSaleReport.xlsx
+++ b/src/main/resources/template/excel/export/goodsSaleReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21330" windowHeight="6780"/>
+    <workbookView windowWidth="27540" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -161,10 +161,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
   <fonts count="24">
@@ -202,67 +202,97 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -270,7 +300,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,13 +314,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -317,30 +340,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,73 +361,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,67 +523,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,37 +541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,13 +570,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,11 +624,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,39 +659,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,10 +673,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,137 +685,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -823,7 +823,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -832,13 +832,14 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1187,14 +1188,14 @@
   <sheetPr/>
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="25.625" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.625" style="4" customWidth="1"/>
     <col min="5" max="15" width="12.625" style="4" customWidth="1"/>
@@ -1223,7 +1224,7 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
+    <row r="2" s="2" customFormat="1" ht="20" customHeight="1" spans="1:17">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1276,56 +1277,56 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="11" t="s">
         <v>34</v>
       </c>
     </row>

--- a/src/main/resources/template/excel/export/goodsSaleReport.xlsx
+++ b/src/main/resources/template/excel/export/goodsSaleReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,9 +30,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="Q4")</t>
+          <t>jx:area(lastCell="Q3")</t>
         </r>
       </text>
     </comment>
@@ -42,6 +43,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="Q3")</t>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>商品销售汇总表</t>
   </si>
@@ -158,41 +160,6 @@
   </si>
   <si>
     <t>${obj.unit}</t>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>$[SUM(F3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(G3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(H3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(I3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(J3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(K3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(L3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(M3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -214,6 +181,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -221,12 +189,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -234,16 +204,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -322,74 +295,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -409,7 +314,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -688,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q98"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -832,47 +737,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-    </row>
+    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -962,7 +831,6 @@
     <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>

--- a/src/main/resources/template/excel/export/goodsSaleReport.xlsx
+++ b/src/main/resources/template/excel/export/goodsSaleReport.xlsx
@@ -33,7 +33,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="Q3")</t>
+          <t>jx:area(lastCell="P3")</t>
         </r>
       </text>
     </comment>
@@ -46,7 +46,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="Q3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="P3")</t>
         </r>
       </text>
     </comment>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>商品销售汇总表</t>
   </si>
@@ -72,9 +72,6 @@
     <t>条码</t>
   </si>
   <si>
-    <t>成本价</t>
-  </si>
-  <si>
     <t>原价金额</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
   </si>
   <si>
     <t>${obj.barCode}</t>
-  </si>
-  <si>
-    <t>${obj.costPrice}</t>
   </si>
   <si>
     <t>${obj.originalAmount}</t>
@@ -165,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
@@ -307,7 +301,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -593,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q97"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -605,12 +599,12 @@
     <col min="2" max="2" width="10.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="25.625" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.625" style="4" customWidth="1"/>
-    <col min="5" max="15" width="12.625" style="4" customWidth="1"/>
-    <col min="16" max="17" width="8.625" style="4" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="4"/>
+    <col min="5" max="14" width="12.625" style="4" customWidth="1"/>
+    <col min="15" max="16" width="8.625" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -629,9 +623,8 @@
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -680,76 +673,70 @@
       <c r="P2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -833,7 +820,7 @@
     <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/goodsSaleReport.xlsx
+++ b/src/main/resources/template/excel/export/goodsSaleReport.xlsx
@@ -33,7 +33,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="P3")</t>
+          <t>jx:area(lastCell="Q3")</t>
         </r>
       </text>
     </comment>
@@ -46,7 +46,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="P3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="Q3")</t>
         </r>
       </text>
     </comment>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>商品销售汇总表</t>
   </si>
@@ -117,49 +117,58 @@
     <t>${obj.skuName}</t>
   </si>
   <si>
+    <t>${obj.originalAmount}</t>
+  </si>
+  <si>
+    <t>${obj.discountAmount}</t>
+  </si>
+  <si>
+    <t>${obj.saleAmount}</t>
+  </si>
+  <si>
+    <t>${obj.saleNum}</t>
+  </si>
+  <si>
+    <t>${obj.returnAmount}</t>
+  </si>
+  <si>
+    <t>${obj.returnNum}</t>
+  </si>
+  <si>
+    <t>${obj.totalNum}</t>
+  </si>
+  <si>
+    <t>${obj.totalAmount}</t>
+  </si>
+  <si>
+    <t>${obj.categoryCode}</t>
+  </si>
+  <si>
+    <t>${obj.categoryName}</t>
+  </si>
+  <si>
+    <t>${obj.spec}</t>
+  </si>
+  <si>
+    <t>${obj.unit}</t>
+  </si>
+  <si>
+    <t>供应商</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>${obj.barCode}</t>
-  </si>
-  <si>
-    <t>${obj.originalAmount}</t>
-  </si>
-  <si>
-    <t>${obj.discountAmount}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount}</t>
-  </si>
-  <si>
-    <t>${obj.saleNum}</t>
-  </si>
-  <si>
-    <t>${obj.returnAmount}</t>
-  </si>
-  <si>
-    <t>${obj.returnNum}</t>
-  </si>
-  <si>
-    <t>${obj.totalNum}</t>
-  </si>
-  <si>
-    <t>${obj.totalAmount}</t>
-  </si>
-  <si>
-    <t>${obj.categoryCode}</t>
-  </si>
-  <si>
-    <t>${obj.categoryName}</t>
-  </si>
-  <si>
-    <t>${obj.spec}</t>
-  </si>
-  <si>
-    <t>${obj.unit}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.supplierName}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
@@ -301,7 +310,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -587,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P97"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -598,13 +607,13 @@
     <col min="1" max="1" width="20.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="25.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="4" customWidth="1"/>
-    <col min="5" max="14" width="12.625" style="4" customWidth="1"/>
-    <col min="15" max="16" width="8.625" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="4"/>
+    <col min="4" max="5" width="18.625" style="4" customWidth="1"/>
+    <col min="6" max="15" width="12.625" style="4" customWidth="1"/>
+    <col min="16" max="17" width="8.625" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -623,8 +632,9 @@
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -638,43 +648,46 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -685,58 +698,61 @@
         <v>19</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="P3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="Q3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="10" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -820,7 +836,7 @@
     <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/goodsSaleReport.xlsx
+++ b/src/main/resources/template/excel/export/goodsSaleReport.xlsx
@@ -169,8 +169,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -281,16 +282,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -614,25 +615,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -703,28 +704,28 @@
       <c r="E3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="10" t="s">
         <v>27</v>
       </c>
       <c r="N3" s="7" t="s">
@@ -733,10 +734,10 @@
       <c r="O3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -840,7 +841,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>